--- a/experiment/result/result_ex1_45.xlsx
+++ b/experiment/result/result_ex1_45.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smari\Documents\assist-create-package-design\experiment\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C019BC68-729C-40AF-B227-E63212563ECE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E6D84F-D794-462B-A3B2-53F29FF63833}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{D1D01124-FFA0-4B82-8EBA-6EBD2A1D909A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{D1D01124-FFA0-4B82-8EBA-6EBD2A1D909A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t xml:space="preserve">filename </t>
     <phoneticPr fontId="1"/>
@@ -49,13 +50,48 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>画像1</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像2</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像3</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像4</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像5</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -103,11 +139,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -124,6 +160,2668 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>画像1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>23769</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22167</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21525</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5472</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2691</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4E09-4EFC-B309-71F36AF42248}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>画像2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>22284</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26340</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23424</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7563</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2919</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2880</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4E09-4EFC-B309-71F36AF42248}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>画像3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>11436</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18509</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12678</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1896</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4E09-4EFC-B309-71F36AF42248}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>画像4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9264</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14727</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11832</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2224</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4E09-4EFC-B309-71F36AF42248}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>画像5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>11940</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14108</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12455</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1317</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4E09-4EFC-B309-71F36AF42248}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="526633280"/>
+        <c:axId val="526634264"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="526633280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>ストライプのインデックス</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="526634264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="526634264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>画素値差分の合計</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0_);[Red]\(0.0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="526633280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>画像1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$J$1:$O$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$J$2:$O$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>25327.105263157799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22167</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22613.368421052601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5489.3684210526299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4027.2631578947298</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1DF6-4C45-B8B4-B8FBD53F18C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>画像2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$J$1:$O$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$J$3:$O$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>23383.2631578947</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26340</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24138.1578947368</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7580.3684210526299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4489.4210526315701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2880</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1DF6-4C45-B8B4-B8FBD53F18C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>画像3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$J$1:$O$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$J$4:$O$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15893</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18509</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14276.5789473684</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1321.3684210526301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3108.10526315789</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1DF6-4C45-B8B4-B8FBD53F18C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>画像4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$J$1:$O$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$J$5:$O$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>11674.3157894736</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14727</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13224.1578947368</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2291.78947368421</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1419.7368421052599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1DF6-4C45-B8B4-B8FBD53F18C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>画像5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$J$1:$O$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$J$6:$O$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>13615.6842105263</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14108</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13813</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1330.78947368421</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2025.3157894736801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1DF6-4C45-B8B4-B8FBD53F18C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="514863312"/>
+        <c:axId val="514863968"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="514863312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>ストライプのインデックス</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514863968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="514863968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>画素値差分の合計</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0_);[Red]\(0.0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514863312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B562F874-BB06-464D-B35D-71CF84F689E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{434A3DA6-73A6-4A47-A673-0C263746E0C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,8 +3123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010F1788-9FF2-4BF9-82DA-D291236B6F34}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -463,42 +3161,42 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>23769</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>22167</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>21525</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>5472</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>2691</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>1005</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>25327.105263157799</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>22167</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>22613.368421052601</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>5489.3684210526299</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>4027.2631578947298</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>1005</v>
       </c>
     </row>
@@ -506,42 +3204,42 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>22284</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>26340</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>23424</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>7563</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>2919</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>2880</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>23383.2631578947</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>26340</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>24138.1578947368</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>7580.3684210526299</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>4489.4210526315701</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>2880</v>
       </c>
     </row>
@@ -549,90 +3247,90 @@
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>11436</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>18509</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>12678</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>1304</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>1896</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>1176</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>15893</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>18509</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>14276.5789473684</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>1321.3684210526301</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>3108.10526315789</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>1176</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>9264</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>14727</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>11832</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>2224</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>230</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>65</v>
       </c>
-      <c r="J9" s="2"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>11674.3157894736</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>14727</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>13224.1578947368</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>2291.78947368421</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>1419.7368421052599</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>65</v>
       </c>
       <c r="J10" s="1"/>
@@ -641,42 +3339,42 @@
       <c r="A11">
         <v>5</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>11940</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>14108</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>12455</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>1317</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>290</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>13615.6842105263</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>14108</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>13813</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>1330.78947368421</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>2025.3157894736801</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>0</v>
       </c>
     </row>
@@ -688,4 +3386,280 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643437DC-F4CD-4CD7-B6D5-D681B22C5673}">
+  <dimension ref="A1:O6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>1</v>
+      </c>
+      <c r="L1">
+        <v>2</v>
+      </c>
+      <c r="M1">
+        <v>3</v>
+      </c>
+      <c r="N1">
+        <v>4</v>
+      </c>
+      <c r="O1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>23769</v>
+      </c>
+      <c r="C2" s="2">
+        <v>22167</v>
+      </c>
+      <c r="D2" s="2">
+        <v>21525</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5472</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2691</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1005</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2">
+        <v>25327.105263157799</v>
+      </c>
+      <c r="K2" s="2">
+        <v>22167</v>
+      </c>
+      <c r="L2" s="2">
+        <v>22613.368421052601</v>
+      </c>
+      <c r="M2" s="2">
+        <v>5489.3684210526299</v>
+      </c>
+      <c r="N2" s="2">
+        <v>4027.2631578947298</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>22284</v>
+      </c>
+      <c r="C3" s="2">
+        <v>26340</v>
+      </c>
+      <c r="D3" s="2">
+        <v>23424</v>
+      </c>
+      <c r="E3" s="2">
+        <v>7563</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2919</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2880</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="2">
+        <v>23383.2631578947</v>
+      </c>
+      <c r="K3" s="2">
+        <v>26340</v>
+      </c>
+      <c r="L3" s="2">
+        <v>24138.1578947368</v>
+      </c>
+      <c r="M3" s="2">
+        <v>7580.3684210526299</v>
+      </c>
+      <c r="N3" s="2">
+        <v>4489.4210526315701</v>
+      </c>
+      <c r="O3" s="2">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>11436</v>
+      </c>
+      <c r="C4" s="2">
+        <v>18509</v>
+      </c>
+      <c r="D4" s="2">
+        <v>12678</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1304</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1896</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1176</v>
+      </c>
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="2">
+        <v>15893</v>
+      </c>
+      <c r="K4" s="2">
+        <v>18509</v>
+      </c>
+      <c r="L4" s="2">
+        <v>14276.5789473684</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1321.3684210526301</v>
+      </c>
+      <c r="N4" s="2">
+        <v>3108.10526315789</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>9264</v>
+      </c>
+      <c r="C5" s="2">
+        <v>14727</v>
+      </c>
+      <c r="D5" s="2">
+        <v>11832</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2224</v>
+      </c>
+      <c r="F5" s="2">
+        <v>230</v>
+      </c>
+      <c r="G5" s="2">
+        <v>65</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="2">
+        <v>11674.3157894736</v>
+      </c>
+      <c r="K5" s="2">
+        <v>14727</v>
+      </c>
+      <c r="L5" s="2">
+        <v>13224.1578947368</v>
+      </c>
+      <c r="M5" s="2">
+        <v>2291.78947368421</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1419.7368421052599</v>
+      </c>
+      <c r="O5" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>11940</v>
+      </c>
+      <c r="C6" s="2">
+        <v>14108</v>
+      </c>
+      <c r="D6" s="2">
+        <v>12455</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1317</v>
+      </c>
+      <c r="F6" s="2">
+        <v>290</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="2">
+        <v>13615.6842105263</v>
+      </c>
+      <c r="K6" s="2">
+        <v>14108</v>
+      </c>
+      <c r="L6" s="2">
+        <v>13813</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1330.78947368421</v>
+      </c>
+      <c r="N6" s="2">
+        <v>2025.3157894736801</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>